--- a/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
+++ b/ClosedXML.Tests/Resource/Other/PivotTableReferenceFiles/SourceSheetWithWhitespace/outputfile.xlsx
@@ -503,12 +503,12 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.891116" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.215301" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="20.258449" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.988458" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="11.530743" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="13.857462" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.771831" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.089262" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="20.048881" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.880142" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="11.417852" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.767826" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:6">
